--- a/biology/Zoologie/Episyrphus/Episyrphus.xlsx
+++ b/biology/Zoologie/Episyrphus/Episyrphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episyrphus est un genre d'insectes diptères brachycères de la famille des syrphidés (ou syrphes), dont les larves ont pour proies principalement les pucerons colonisant la flore sauvage et aussi les arbres fruitiers, les cultures légumières, les grandes cultures...
 </t>
@@ -511,11 +523,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seule espèce appartenant au genre Episyrphus selon Fauna Europaea                                      (5 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seule espèce appartenant au genre Episyrphus selon Fauna Europaea                                      (5 mars 2023) :
 Episyrphus balteatus - le syrphe ceinturé
-Espèces de ce genre selon EOL                          (2 juillet 2013)[2] :
+Espèces de ce genre selon EOL                          (2 juillet 2013) :
 Nombreuses espèces
 Sur les autres projets Wikimedia :
 Episyrphus, sur Wikimedia CommonsEpisyrphus, sur Wikispecies
